--- a/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
+++ b/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
@@ -157,22 +157,23 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
+    <t>直送收货单</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3+0)]</t>
+    <t>$[SUMPRODUCT(F3:F3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(F3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(M3+0)]</t>
-  </si>
-  <si>
-    <t>直送收货单</t>
+    <t>$[SUMPRODUCT(I3:I3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -739,20 +740,20 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>

--- a/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
+++ b/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
@@ -161,19 +161,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(F3:F3+0)]</t>
+    <t>$[SUMPRODUCT(F3:F3:F3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3:I3+0)]</t>
+    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(M3:M3+0)]</t>
+    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
+++ b/src/main/resources/template/excel/export/DirectReceiptForm.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,6 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -309,7 +310,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -598,7 +599,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,7 +704,7 @@
       <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -765,7 +766,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>